--- a/Location.xlsx
+++ b/Location.xlsx
@@ -20,18 +20,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="30">
-  <si>
-    <t>Area Code</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Market</t>
-  </si>
-  <si>
-    <t>Market Size</t>
-  </si>
   <si>
     <t>Connecticut</t>
   </si>
@@ -109,6 +97,18 @@
   </si>
   <si>
     <t>Nevada</t>
+  </si>
+  <si>
+    <t>areacode</t>
+  </si>
+  <si>
+    <t>marketsize</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>state</t>
   </si>
 </sst>
 </file>
@@ -917,7 +917,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -926,16 +928,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -943,13 +945,13 @@
         <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -957,13 +959,13 @@
         <v>206</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -971,13 +973,13 @@
         <v>209</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -985,13 +987,13 @@
         <v>210</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -999,13 +1001,13 @@
         <v>212</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1013,13 +1015,13 @@
         <v>213</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1027,13 +1029,13 @@
         <v>214</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1041,13 +1043,13 @@
         <v>216</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1055,13 +1057,13 @@
         <v>217</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1069,13 +1071,13 @@
         <v>224</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1083,13 +1085,13 @@
         <v>225</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1097,13 +1099,13 @@
         <v>234</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1111,13 +1113,13 @@
         <v>239</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1125,13 +1127,13 @@
         <v>253</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,13 +1141,13 @@
         <v>254</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1153,13 +1155,13 @@
         <v>262</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1167,13 +1169,13 @@
         <v>281</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1181,13 +1183,13 @@
         <v>303</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1195,13 +1197,13 @@
         <v>305</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1209,13 +1211,13 @@
         <v>309</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1223,13 +1225,13 @@
         <v>310</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1237,13 +1239,13 @@
         <v>312</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1251,13 +1253,13 @@
         <v>314</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1265,13 +1267,13 @@
         <v>315</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1279,13 +1281,13 @@
         <v>318</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1293,13 +1295,13 @@
         <v>319</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1307,13 +1309,13 @@
         <v>321</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1321,13 +1323,13 @@
         <v>323</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1335,13 +1337,13 @@
         <v>325</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1349,13 +1351,13 @@
         <v>330</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1363,13 +1365,13 @@
         <v>337</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1377,13 +1379,13 @@
         <v>339</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1391,13 +1393,13 @@
         <v>347</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1405,13 +1407,13 @@
         <v>351</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1419,13 +1421,13 @@
         <v>352</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1433,13 +1435,13 @@
         <v>360</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1447,13 +1449,13 @@
         <v>361</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1461,13 +1463,13 @@
         <v>386</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1475,13 +1477,13 @@
         <v>405</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1489,13 +1491,13 @@
         <v>407</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1503,13 +1505,13 @@
         <v>408</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1517,13 +1519,13 @@
         <v>409</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1531,13 +1533,13 @@
         <v>413</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1545,13 +1547,13 @@
         <v>414</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1559,13 +1561,13 @@
         <v>415</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1573,13 +1575,13 @@
         <v>417</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1587,13 +1589,13 @@
         <v>419</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1601,13 +1603,13 @@
         <v>425</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1615,13 +1617,13 @@
         <v>430</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1629,13 +1631,13 @@
         <v>432</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1643,13 +1645,13 @@
         <v>435</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1657,13 +1659,13 @@
         <v>440</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1671,13 +1673,13 @@
         <v>469</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1685,13 +1687,13 @@
         <v>475</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1699,13 +1701,13 @@
         <v>503</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1713,13 +1715,13 @@
         <v>504</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1727,13 +1729,13 @@
         <v>505</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1741,13 +1743,13 @@
         <v>508</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1755,13 +1757,13 @@
         <v>509</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1769,13 +1771,13 @@
         <v>510</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1783,13 +1785,13 @@
         <v>512</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1797,13 +1799,13 @@
         <v>513</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1811,13 +1813,13 @@
         <v>515</v>
       </c>
       <c r="B64" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1825,13 +1827,13 @@
         <v>516</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1839,13 +1841,13 @@
         <v>518</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1853,13 +1855,13 @@
         <v>530</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1867,13 +1869,13 @@
         <v>541</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1881,13 +1883,13 @@
         <v>559</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1895,13 +1897,13 @@
         <v>561</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1909,13 +1911,13 @@
         <v>562</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1923,13 +1925,13 @@
         <v>563</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1937,13 +1939,13 @@
         <v>567</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1951,13 +1953,13 @@
         <v>573</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1965,13 +1967,13 @@
         <v>580</v>
       </c>
       <c r="B75" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1979,13 +1981,13 @@
         <v>585</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1993,13 +1995,13 @@
         <v>603</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2007,13 +2009,13 @@
         <v>607</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2021,13 +2023,13 @@
         <v>608</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2035,13 +2037,13 @@
         <v>614</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2049,13 +2051,13 @@
         <v>617</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2063,13 +2065,13 @@
         <v>618</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2077,13 +2079,13 @@
         <v>619</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2091,13 +2093,13 @@
         <v>626</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2105,13 +2107,13 @@
         <v>630</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2119,13 +2121,13 @@
         <v>631</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2133,13 +2135,13 @@
         <v>636</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2147,13 +2149,13 @@
         <v>641</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2161,13 +2163,13 @@
         <v>646</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2175,13 +2177,13 @@
         <v>650</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2189,13 +2191,13 @@
         <v>660</v>
       </c>
       <c r="B91" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2203,13 +2205,13 @@
         <v>661</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2217,13 +2219,13 @@
         <v>682</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2231,13 +2233,13 @@
         <v>702</v>
       </c>
       <c r="B94" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2245,13 +2247,13 @@
         <v>707</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2259,13 +2261,13 @@
         <v>708</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2273,13 +2275,13 @@
         <v>712</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2287,13 +2289,13 @@
         <v>713</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2301,13 +2303,13 @@
         <v>714</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2315,13 +2317,13 @@
         <v>715</v>
       </c>
       <c r="B100" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2329,13 +2331,13 @@
         <v>716</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2343,13 +2345,13 @@
         <v>718</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2357,13 +2359,13 @@
         <v>719</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2371,13 +2373,13 @@
         <v>720</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2385,13 +2387,13 @@
         <v>727</v>
       </c>
       <c r="B105" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2399,13 +2401,13 @@
         <v>740</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2413,13 +2415,13 @@
         <v>754</v>
       </c>
       <c r="B107" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C107" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2427,13 +2429,13 @@
         <v>760</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2441,13 +2443,13 @@
         <v>772</v>
       </c>
       <c r="B109" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C109" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2455,13 +2457,13 @@
         <v>773</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2469,13 +2471,13 @@
         <v>774</v>
       </c>
       <c r="B111" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C111" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2483,13 +2485,13 @@
         <v>775</v>
       </c>
       <c r="B112" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2497,13 +2499,13 @@
         <v>781</v>
       </c>
       <c r="B113" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C113" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2511,13 +2513,13 @@
         <v>786</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C114" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2525,13 +2527,13 @@
         <v>801</v>
       </c>
       <c r="B115" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D115" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2539,13 +2541,13 @@
         <v>805</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2553,13 +2555,13 @@
         <v>806</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2567,13 +2569,13 @@
         <v>813</v>
       </c>
       <c r="B118" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C118" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2581,13 +2583,13 @@
         <v>815</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2595,13 +2597,13 @@
         <v>816</v>
       </c>
       <c r="B120" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2609,13 +2611,13 @@
         <v>817</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2623,13 +2625,13 @@
         <v>818</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2637,13 +2639,13 @@
         <v>830</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2651,13 +2653,13 @@
         <v>831</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2665,13 +2667,13 @@
         <v>832</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2679,13 +2681,13 @@
         <v>845</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2693,13 +2695,13 @@
         <v>847</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C127" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2707,13 +2709,13 @@
         <v>850</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C128" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2721,13 +2723,13 @@
         <v>857</v>
       </c>
       <c r="B129" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C129" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2735,13 +2737,13 @@
         <v>858</v>
       </c>
       <c r="B130" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2749,13 +2751,13 @@
         <v>860</v>
       </c>
       <c r="B131" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2763,13 +2765,13 @@
         <v>863</v>
       </c>
       <c r="B132" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2777,13 +2779,13 @@
         <v>903</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2791,13 +2793,13 @@
         <v>904</v>
       </c>
       <c r="B134" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2805,13 +2807,13 @@
         <v>909</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2819,13 +2821,13 @@
         <v>914</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2833,13 +2835,13 @@
         <v>915</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2847,13 +2849,13 @@
         <v>916</v>
       </c>
       <c r="B138" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2861,13 +2863,13 @@
         <v>917</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -2875,13 +2877,13 @@
         <v>918</v>
       </c>
       <c r="B140" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C140" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D140" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -2889,13 +2891,13 @@
         <v>920</v>
       </c>
       <c r="B141" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D141" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2903,13 +2905,13 @@
         <v>925</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -2917,13 +2919,13 @@
         <v>936</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -2931,13 +2933,13 @@
         <v>937</v>
       </c>
       <c r="B144" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2945,13 +2947,13 @@
         <v>940</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -2959,13 +2961,13 @@
         <v>941</v>
       </c>
       <c r="B146" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C146" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -2973,13 +2975,13 @@
         <v>949</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -2987,13 +2989,13 @@
         <v>951</v>
       </c>
       <c r="B148" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3001,13 +3003,13 @@
         <v>954</v>
       </c>
       <c r="B149" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C149" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3015,13 +3017,13 @@
         <v>956</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3029,13 +3031,13 @@
         <v>959</v>
       </c>
       <c r="B151" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3043,13 +3045,13 @@
         <v>970</v>
       </c>
       <c r="B152" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3057,13 +3059,13 @@
         <v>971</v>
       </c>
       <c r="B153" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D153" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3071,13 +3073,13 @@
         <v>972</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3085,13 +3087,13 @@
         <v>978</v>
       </c>
       <c r="B155" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C155" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3099,13 +3101,13 @@
         <v>979</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3113,13 +3115,13 @@
         <v>985</v>
       </c>
       <c r="B157" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C157" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D157" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Location.xlsx
+++ b/Location.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17595" windowHeight="4725"/>
   </bookViews>
   <sheets>
     <sheet name="Location" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
     <t>market</t>
   </si>
   <si>
-    <t>state</t>
+    <t xml:space="preserve"> state</t>
   </si>
 </sst>
 </file>
@@ -918,7 +918,7 @@
   <dimension ref="A1:D157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Location.xlsx
+++ b/Location.xlsx
@@ -108,7 +108,7 @@
     <t>market</t>
   </si>
   <si>
-    <t xml:space="preserve"> state</t>
+    <t xml:space="preserve"> state.2</t>
   </si>
 </sst>
 </file>
@@ -918,7 +918,7 @@
   <dimension ref="A1:D157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Location.xlsx
+++ b/Location.xlsx
@@ -108,7 +108,7 @@
     <t>market</t>
   </si>
   <si>
-    <t xml:space="preserve"> state.2</t>
+    <t xml:space="preserve"> state</t>
   </si>
 </sst>
 </file>
@@ -918,7 +918,7 @@
   <dimension ref="A1:D157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
